--- a/Chapter Solutions/hw3Alignment.xlsx
+++ b/Chapter Solutions/hw3Alignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coulston\Documents\GitHub\Design-For-Electrical-and-Computer-Engineering\Chapter Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58197FB-9E46-4B9C-9FEF-97506A3C3FD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200607E-E714-4560-B204-4FC5B03EC85F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{C4DF28B0-6423-42A1-AF9D-9FFC0E346FCE}"/>
   </bookViews>
@@ -97,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,9 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +445,7 @@
   <dimension ref="C1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,30 +477,32 @@
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>3.2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>3.3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
         <v>3.5</v>
       </c>
     </row>
@@ -511,30 +521,32 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>3.5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2">
         <v>3.3</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>3.6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2">
         <v>3.4</v>
       </c>
     </row>
@@ -553,16 +565,17 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>3.8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2">
         <v>3.6</v>
       </c>
     </row>
@@ -595,30 +608,32 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
